--- a/Phase_One/docs/Visual_Data.xlsx
+++ b/Phase_One/docs/Visual_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">FCFS</t>
   </si>
@@ -34,10 +34,29 @@
     <t xml:space="preserve">Avg. Wait Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg.T.T</t>
+    <t xml:space="preserve">Avg.Turnaround time</t>
   </si>
   <si>
     <t xml:space="preserve">Avg. idle time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Avg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Turnaround time</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1(753 Processes)</t>
@@ -78,11 +97,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,6 +118,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,15 +177,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +266,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>FCFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -247,11 +305,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCFS Avg. Wait Time</c:v>
+                  <c:v>Avg. Wait Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -320,11 +378,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg.T.T</c:v>
+                  <c:v>Avg.Turnaround time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,7 +451,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -463,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10844229"/>
-        <c:axId val="95558184"/>
+        <c:axId val="99082835"/>
+        <c:axId val="17182922"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10844229"/>
+        <c:axId val="99082835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95558184"/>
+        <c:crossAx val="17182922"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95558184"/>
+        <c:axId val="17182922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10844229"/>
+        <c:crossAx val="99082835"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -593,7 +651,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>SJF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -604,11 +690,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SJF Avg. Wait Time</c:v>
+                  <c:v>Avg. Wait Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -677,11 +763,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg.T.T</c:v>
+                  <c:v>Avg.Turnaround time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,7 +836,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$G$2</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -820,11 +906,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23322564"/>
-        <c:axId val="22703354"/>
+        <c:axId val="80416407"/>
+        <c:axId val="644105"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23322564"/>
+        <c:axId val="80416407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +938,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22703354"/>
+        <c:crossAx val="644105"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22703354"/>
+        <c:axId val="644105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +983,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23322564"/>
+        <c:crossAx val="80416407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,15 +1036,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:colOff>400680</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -966,8 +1052,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="236880" y="1775880"/>
-        <a:ext cx="5758920" cy="3238560"/>
+        <a:off x="400680" y="1700640"/>
+        <a:ext cx="5759640" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -980,15 +1066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -996,8 +1082,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="187920" y="6077160"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="432360" y="6050880"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1123,18 +1209,18 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
@@ -1168,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -1176,7 +1262,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>34.55</v>
@@ -1199,7 +1285,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>35.27</v>
@@ -1222,7 +1308,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>37.23</v>
@@ -1245,7 +1331,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>37.52</v>
@@ -1268,7 +1354,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>37.05</v>
@@ -1291,7 +1377,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1413,7 +1499,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -1421,7 +1507,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -1429,7 +1515,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
